--- a/data/trans_camb/P37-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P37-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 6,63</t>
+          <t>-2,71; 7,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 6,82</t>
+          <t>-3,3; 6,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>19,41; 30,15</t>
+          <t>19,17; 29,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 4,76</t>
+          <t>-5,91; 4,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 6,75</t>
+          <t>-4,25; 6,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,4; 29,54</t>
+          <t>18,59; 29,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 4,48</t>
+          <t>-3,11; 4,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 5,17</t>
+          <t>-2,07; 5,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>20,52; 27,99</t>
+          <t>20,19; 28,0</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-18,78; 59,89</t>
+          <t>-18,45; 64,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-23,34; 58,84</t>
+          <t>-20,85; 57,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>123,12; 282,05</t>
+          <t>118,83; 269,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-38,62; 52,05</t>
+          <t>-41,93; 41,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-28,63; 71,61</t>
+          <t>-29,2; 66,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>111,94; 321,8</t>
+          <t>114,45; 307,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-18,66; 40,06</t>
+          <t>-21,16; 37,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-14,55; 47,72</t>
+          <t>-14,33; 45,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>132,81; 251,84</t>
+          <t>133,42; 254,36</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 8,32</t>
+          <t>-2,51; 9,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 2,89</t>
+          <t>-7,22; 3,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,64; 26,39</t>
+          <t>15,3; 27,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 6,85</t>
+          <t>-2,31; 6,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 5,64</t>
+          <t>-2,1; 6,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,29; 28,12</t>
+          <t>18,92; 28,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 6,98</t>
+          <t>-0,31; 7,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 3,26</t>
+          <t>-3,86; 3,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,49; 26,6</t>
+          <t>18,63; 26,33</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,66; 63,39</t>
+          <t>-13,65; 68,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-40,32; 22,31</t>
+          <t>-39,75; 25,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>75,29; 203,17</t>
+          <t>80,16; 206,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-24,16; 129,15</t>
+          <t>-27,51; 124,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-23,61; 107,88</t>
+          <t>-23,48; 125,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>195,49; 592,48</t>
+          <t>199,17; 598,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 68,82</t>
+          <t>-2,09; 75,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-27,36; 33,0</t>
+          <t>-29,67; 30,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>135,49; 276,15</t>
+          <t>140,4; 277,04</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,2; 9,54</t>
+          <t>1,24; 9,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,29; 8,69</t>
+          <t>0,67; 9,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 20,98</t>
+          <t>-4,82; 21,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 5,92</t>
+          <t>-6,65; 6,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 14,0</t>
+          <t>-3,41; 13,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,32; 34,15</t>
+          <t>18,11; 34,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 7,1</t>
+          <t>0,2; 7,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,84; 8,61</t>
+          <t>0,79; 8,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 22,89</t>
+          <t>-4,19; 23,04</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,89; 87,28</t>
+          <t>7,65; 89,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,87; 80,54</t>
+          <t>4,64; 87,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-37,81; 175,57</t>
+          <t>-36,79; 176,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-43,34; 68,2</t>
+          <t>-41,43; 78,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-21,46; 155,93</t>
+          <t>-23,48; 141,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>106,33; 392,57</t>
+          <t>94,89; 382,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,09; 67,04</t>
+          <t>1,4; 70,35</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,78; 80,38</t>
+          <t>4,67; 76,92</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-18,34; 191,75</t>
+          <t>-28,73; 195,61</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,2; 6,21</t>
+          <t>0,34; 6,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 3,69</t>
+          <t>-2,51; 3,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,46; 20,64</t>
+          <t>13,09; 20,46</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 2,38</t>
+          <t>-4,07; 2,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 3,65</t>
+          <t>-4,21; 2,7</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,48; 58,19</t>
+          <t>16,17; 58,73</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 3,79</t>
+          <t>-0,96; 3,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 2,07</t>
+          <t>-2,41; 2,28</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>16,27; 43,83</t>
+          <t>16,06; 40,37</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,17; 41,57</t>
+          <t>1,94; 42,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-12,12; 25,18</t>
+          <t>-14,23; 23,21</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>75,05; 136,18</t>
+          <t>73,83; 137,97</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-29,43; 21,53</t>
+          <t>-28,66; 27,75</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-26,26; 32,06</t>
+          <t>-28,35; 25,36</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>120,53; 506,88</t>
+          <t>115,74; 511,5</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 26,75</t>
+          <t>-5,7; 26,78</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-14,2; 14,43</t>
+          <t>-14,91; 15,91</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>104,13; 298,63</t>
+          <t>102,27; 279,57</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 9,48</t>
+          <t>-0,84; 9,43</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 8,92</t>
+          <t>-0,54; 8,93</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,78; 18,16</t>
+          <t>7,55; 18,32</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,57; 9,81</t>
+          <t>1,71; 10,02</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 6,83</t>
+          <t>-1,78; 6,76</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>8,69; 23,0</t>
+          <t>9,0; 22,92</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,87; 8,1</t>
+          <t>1,73; 8,3</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,24; 6,58</t>
+          <t>0,33; 6,55</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>10,73; 19,95</t>
+          <t>10,21; 19,63</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 87,54</t>
+          <t>-6,17; 81,64</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 82,1</t>
+          <t>-3,49; 78,51</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>44,47; 159,32</t>
+          <t>42,69; 158,58</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>9,76; 83,05</t>
+          <t>9,87; 82,92</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-9,8; 56,59</t>
+          <t>-11,62; 55,26</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>58,84; 188,81</t>
+          <t>57,68; 185,26</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>12,2; 65,46</t>
+          <t>10,55; 67,72</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1,45; 53,07</t>
+          <t>1,89; 52,29</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>71,24; 155,83</t>
+          <t>68,06; 156,65</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,23; 8,77</t>
+          <t>0,68; 9,25</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 5,78</t>
+          <t>-1,68; 5,66</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 7,01</t>
+          <t>-2,25; 6,77</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,16; 8,65</t>
+          <t>1,39; 8,81</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 6,89</t>
+          <t>-0,44; 7,08</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>19,67; 27,82</t>
+          <t>19,55; 28,04</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,94; 8,07</t>
+          <t>2,16; 8,07</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 5,47</t>
+          <t>-0,71; 5,75</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>13,92; 21,17</t>
+          <t>13,82; 21,43</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>0,75; 324,89</t>
+          <t>6,02; 366,34</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-35,7; 222,47</t>
+          <t>-33,4; 232,82</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-45,69; 279,97</t>
+          <t>-47,43; 222,52</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>4,75; 41,86</t>
+          <t>5,18; 42,23</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 33,9</t>
+          <t>-2,03; 34,32</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>81,82; 135,96</t>
+          <t>81,57; 136,09</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>9,35; 46,54</t>
+          <t>10,9; 47,42</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 30,99</t>
+          <t>-3,61; 32,79</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>68,6; 122,55</t>
+          <t>69,91; 123,28</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1,83; 5,63</t>
+          <t>1,97; 5,62</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,05; 3,64</t>
+          <t>-0,09; 3,56</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>7,89; 18,25</t>
+          <t>8,16; 18,12</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,49; 4,12</t>
+          <t>0,51; 4,09</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 3,29</t>
+          <t>-0,37; 3,18</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>18,53; 34,06</t>
+          <t>18,93; 35,08</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>1,84; 4,34</t>
+          <t>1,65; 4,24</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,82</t>
+          <t>0,21; 2,77</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>15,91; 25,87</t>
+          <t>15,8; 25,43</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>12,52; 42,96</t>
+          <t>13,56; 43,15</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>0,32; 28,12</t>
+          <t>-0,61; 27,42</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>57,19; 136,29</t>
+          <t>58,8; 134,95</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>2,9; 27,88</t>
+          <t>2,8; 26,94</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 22,07</t>
+          <t>-2,17; 21,3</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>112,84; 220,59</t>
+          <t>115,41; 229,69</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>11,77; 30,66</t>
+          <t>10,49; 29,59</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>2,06; 19,83</t>
+          <t>1,39; 19,41</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>104,3; 172,84</t>
+          <t>103,82; 171,47</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P37-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P37-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
